--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1094.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1094.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.21977294782804</v>
+        <v>1.176720142364502</v>
       </c>
       <c r="B1">
-        <v>2.337106761132804</v>
+        <v>2.41304349899292</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.735817493348063</v>
+        <v>2.337858915328979</v>
       </c>
       <c r="E1">
-        <v>1.127528462695197</v>
+        <v>1.200987696647644</v>
       </c>
     </row>
   </sheetData>
